--- a/investin/data/static/TradingView/translations/translation.xlsx
+++ b/investin/data/static/TradingView/translations/translation.xlsx
@@ -669,13 +669,13 @@
     <t>Pharmaceuticals: Other</t>
   </si>
   <si>
-    <t>其他</t>
+    <t>其他制药</t>
   </si>
   <si>
     <t>Pharmaceuticals: Major</t>
   </si>
   <si>
-    <t>主要</t>
+    <t>主要制药</t>
   </si>
   <si>
     <t>Medical Specialties</t>
@@ -1958,7 +1958,7 @@
         <v>173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="1" t="s">
         <v>166</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="1" t="s">
         <v>166</v>
       </c>
